--- a/data/trans_bre/iP13_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/iP13_R-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -768,32 +768,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 3,51</t>
+          <t>-8,32; 3,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 4,59</t>
+          <t>-8,01; 5,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 6,36</t>
+          <t>-4,82; 5,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,59; 7,97</t>
+          <t>-12,58; 7,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-75,3; 105,13</t>
+          <t>-77,54; 106,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-68,54; 109,7</t>
+          <t>-70,45; 118,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-68,47; 127,84</t>
+          <t>-72,85; 121,15</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 2,76</t>
+          <t>-1,64; 2,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 0,94</t>
+          <t>-3,92; 1,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 2,54</t>
+          <t>-2,21; 2,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 1,97</t>
+          <t>-3,25; 1,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-32,95; 81,45</t>
+          <t>-29,57; 82,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-48,5; 16,45</t>
+          <t>-48,83; 21,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-34,5; 73,79</t>
+          <t>-37,02; 74,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-45,8; 43,32</t>
+          <t>-44,08; 37,62</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 0,67</t>
+          <t>-6,36; 0,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 5,59</t>
+          <t>-1,98; 5,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 6,84</t>
+          <t>-1,2; 6,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 5,4</t>
+          <t>-4,62; 5,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-81,79; 34,68</t>
+          <t>-83,01; 24,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-45,8; 343,32</t>
+          <t>-45,79; 299,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-25,77; 298,01</t>
+          <t>-28,22; 299,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-55,1; 126,16</t>
+          <t>-55,2; 130,54</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 1,26</t>
+          <t>-2,34; 1,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 1,39</t>
+          <t>-2,87; 1,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 2,62</t>
+          <t>-0,91; 2,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 1,64</t>
+          <t>-2,82; 1,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-39,77; 31,39</t>
+          <t>-39,87; 27,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-39,74; 26,28</t>
+          <t>-38,22; 24,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-21,3; 72,0</t>
+          <t>-18,06; 76,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-37,77; 30,47</t>
+          <t>-36,94; 32,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/iP13_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/iP13_R-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,49</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,36%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,69%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,58%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,71%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-7,57; 3,84</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-7,83; 4,37</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-5,32; 5,17</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-11,78; 6,95</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-72,74; 159,92</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-69,43; 103,62</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,42; 119,84</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,77</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-25,36%</t>
+          <t>11,23%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-17,69%</t>
+          <t>-22,32%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-15,72%</t>
+          <t>-14,45%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 3,56</t>
+          <t>-1,69; 2,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 5,03</t>
+          <t>-4,04; 0,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 5,84</t>
+          <t>-2,49; 2,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,58; 7,91</t>
+          <t>-3,26; 1,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-77,54; 106,49</t>
+          <t>-31,36; 82,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-70,45; 118,86</t>
+          <t>-49,53; 17,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,42; 63,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-72,85; 121,15</t>
+          <t>-46,65; 29,28</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>-2,65</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>2,89</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,23%</t>
+          <t>-49,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-22,32%</t>
+          <t>59,98%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>80,45%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-14,06%</t>
+          <t>4,25%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 2,94</t>
+          <t>-6,31; 0,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 1,05</t>
+          <t>-1,71; 5,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 2,66</t>
+          <t>-0,81; 6,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 1,68</t>
+          <t>-4,52; 5,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-29,57; 82,17</t>
+          <t>-80,87; 38,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-48,83; 21,05</t>
+          <t>-39,4; 433,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-37,02; 74,2</t>
+          <t>-20,72; 325,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-44,08; 37,62</t>
+          <t>-53,47; 133,98</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,65</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,89</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-49,0%</t>
+          <t>-10,77%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>59,98%</t>
+          <t>-11,55%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>80,45%</t>
+          <t>19,18%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>-11,34%</t>
         </is>
       </c>
     </row>
@@ -968,156 +968,55 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 0,61</t>
+          <t>-2,42; 1,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 5,43</t>
+          <t>-2,56; 1,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 6,45</t>
+          <t>-0,82; 2,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 5,2</t>
+          <t>-2,97; 1,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-83,01; 24,85</t>
+          <t>-41,83; 29,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-45,79; 299,62</t>
+          <t>-37,43; 27,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-28,22; 299,43</t>
+          <t>-17,21; 74,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-55,2; 130,54</t>
+          <t>-40,51; 26,46</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,53</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,7</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,85</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-0,68</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-10,68%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-11,47%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>19,18%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-10,47%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-2,34; 1,13</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,87; 1,23</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-0,91; 2,71</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-2,82; 1,64</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-39,87; 27,52</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-38,22; 24,0</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-18,06; 76,1</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-36,94; 32,57</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
